--- a/docs/Uebersicht Elemente Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht Elemente Baernreither-Edition_2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Desktop/Kommission f gesch ö/Kommission Aichner/Projekte/Baernreither/Clariah 2022/Orga/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -206,9 +206,6 @@
     <t>hi</t>
   </si>
   <si>
-    <t>rend</t>
-  </si>
-  <si>
     <t>del</t>
   </si>
   <si>
@@ -287,21 +284,9 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>when:iso</t>
-  </si>
-  <si>
-    <t>Achtung laut DTA nur when</t>
-  </si>
-  <si>
     <t>Angabe im Format Jahr-Monat-Tag XXXX-XX-XX</t>
   </si>
   <si>
-    <t>from-iso</t>
-  </si>
-  <si>
-    <t>to-iso</t>
-  </si>
-  <si>
     <t>Angabe zur Zugänglichkeit, laut DTA</t>
   </si>
   <si>
@@ -374,9 +359,6 @@
     <t>Hervorhebung</t>
   </si>
   <si>
-    <t>laut DTA ist das richtige Attribut rendition</t>
-  </si>
-  <si>
     <t>"ul" -&gt; unterstrichen</t>
   </si>
   <si>
@@ -447,6 +429,12 @@
   </si>
   <si>
     <t>Kurztitel des Textes auf den Verwiesen wird, hier entweder Lebenserinnerungen oder Tagebuch</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -470,18 +458,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -566,13 +548,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -581,7 +560,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -589,7 +568,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -869,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,13 +885,13 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -917,686 +899,682 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
+      <c r="D57" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6" t="s">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="D63" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="A64" s="6"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="6"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="7"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
+      <c r="A66" s="6"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="7"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="7"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="A68" s="6"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>

--- a/docs/Uebersicht Elemente Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht Elemente Baernreither-Edition_2023.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -851,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,10 +1553,14 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>

--- a/docs/Uebersicht Elemente Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht Elemente Baernreither-Edition_2023.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doris\Github\baernreither-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{543F668C-8546-46ED-B6D7-BFB20090692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13620" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -350,9 +351,6 @@
     <t>Seitenumbruch</t>
   </si>
   <si>
-    <t>Signatur des Faksimiles</t>
-  </si>
-  <si>
     <t>Seitennummer</t>
   </si>
   <si>
@@ -435,12 +433,21 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Signatur des Faksimiles aus Karton 5:fK_5-002-r 
+fK_5-002_v
+aber bei jenen Scans die aus Karton5 stammen:  
+fK5-002-r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -537,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -569,18 +576,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -848,29 +855,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.296875" customWidth="1"/>
+    <col min="2" max="2" width="34.296875" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
     <col min="4" max="4" width="45.5" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,13 +885,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -898,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -912,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -922,7 +929,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -932,7 +939,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -942,7 +949,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -952,7 +959,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -962,7 +969,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -976,7 +983,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="5" t="s">
@@ -986,7 +993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="8"/>
       <c r="C13" s="5" t="s">
@@ -994,7 +1001,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1011,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1021,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1024,7 +1031,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
@@ -1048,7 +1055,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
@@ -1056,7 +1063,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1066,7 +1073,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1083,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -1090,7 +1097,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1100,7 +1107,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -1112,7 +1119,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1129,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -1132,7 +1139,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1142,7 +1149,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
@@ -1150,35 +1157,35 @@
         <v>84</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="9"/>
       <c r="C29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
       <c r="C30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1188,7 +1195,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1198,7 +1205,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1208,7 +1215,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1218,7 +1225,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>36</v>
       </c>
@@ -1228,7 +1235,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1238,7 +1245,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
@@ -1248,7 +1255,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
@@ -1258,7 +1265,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -1268,7 +1275,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
@@ -1278,7 +1285,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -1288,7 +1295,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
@@ -1298,7 +1305,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
@@ -1308,7 +1315,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -1322,7 +1329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
@@ -1332,7 +1339,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
@@ -1346,7 +1353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -1354,7 +1361,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
@@ -1362,7 +1369,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -1372,7 +1379,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
@@ -1386,7 +1393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -1396,7 +1403,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>55</v>
       </c>
@@ -1407,73 +1414,73 @@
         <v>56</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="9"/>
       <c r="C53" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="8"/>
       <c r="C57" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="8"/>
       <c r="C58" s="5" t="s">
@@ -1481,645 +1488,649 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="B60" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="C60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="3" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="3" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="B63" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="C63" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="D63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="1"/>
       <c r="C65" s="6"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="1"/>
       <c r="C66" s="6"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="1"/>
       <c r="C67" s="6"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2127,5 +2138,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>